--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_10-19.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_10-19.xlsx
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>0:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-10:0</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>Friday, 16 January, 2026 10:19 AM</t>
@@ -775,38 +784,64 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="K9" s="10">
-        <v>196.36000000000001</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="11">
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c t="s" r="F10" s="12">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c t="s" r="I10" s="14">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>20</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c t="s" r="N9" s="7">
         <v>21</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+    </row>
+    <row r="10" ht="26.25" customHeight="1">
+      <c r="K10" s="10">
+        <v>216.36000000000001</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c t="s" r="F11" s="12">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c t="s" r="I11" s="14">
+        <v>24</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -829,10 +864,13 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:N11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
